--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD6F254-809E-4E27-81EA-B11A1546ED36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC02640-7C00-4715-B6E8-90D5B3A6516C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
     <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
@@ -49,7 +49,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
     <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
@@ -84,7 +84,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="109">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -331,145 +331,21 @@
     <t>output data</t>
   </si>
   <si>
-    <t>titlu is String</t>
-  </si>
-  <si>
     <t>titlu</t>
   </si>
   <si>
-    <t>regizor</t>
-  </si>
-  <si>
-    <t>an aparitie</t>
-  </si>
-  <si>
-    <t>actori</t>
-  </si>
-  <si>
-    <t>categorie</t>
-  </si>
-  <si>
-    <t>cuvinte cheie</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>titlu not String</t>
-  </si>
-  <si>
-    <t>1, 3, 5, 7, 9, …</t>
-  </si>
-  <si>
-    <t>"Movie Title"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Director1, Director 2 Author2</t>
-  </si>
-  <si>
-    <t>Actor1, Actor2</t>
-  </si>
-  <si>
-    <t>Aventure</t>
-  </si>
-  <si>
-    <t>keyword1, keyword2</t>
-  </si>
-  <si>
     <t>2,3,2</t>
   </si>
   <si>
-    <t>record added</t>
-  </si>
-  <si>
-    <t>regizor is String</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>regizor not String</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 3, 5, 7, 9</t>
-    </r>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>Error message-Empty title</t>
-  </si>
-  <si>
-    <t>an aparitie is number</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>an aparitie not number</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1, 3, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="49"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, …</t>
-    </r>
-  </si>
-  <si>
-    <t>201q</t>
-  </si>
-  <si>
-    <t>Error message-? Compiler checked</t>
-  </si>
-  <si>
-    <t>an aparitie &gt; 1900</t>
-  </si>
-  <si>
-    <t>an aparitie not &gt; 1900</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -494,94 +370,7 @@
     <t>Executable</t>
   </si>
   <si>
-    <t>titlu is String, length in [1,255]</t>
-  </si>
-  <si>
-    <t>01. titlu = "", length = 0</t>
-  </si>
-  <si>
     <t>expected result</t>
-  </si>
-  <si>
-    <t>02. titlu = ?, length = -1</t>
-  </si>
-  <si>
-    <t>TC3_EC</t>
-  </si>
-  <si>
-    <t>03. titlu = "M", length = 1</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>04. titlu = "M…123", length = 255</t>
-  </si>
-  <si>
-    <t>"M"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Director1, Director 2</t>
-  </si>
-  <si>
-    <t>Drama</t>
-  </si>
-  <si>
-    <t>05. titlu = "M…12", length = 254</t>
-  </si>
-  <si>
-    <t>"M…123"</t>
-  </si>
-  <si>
-    <t>06. titlu = "M…1234", length = 256</t>
-  </si>
-  <si>
-    <t>"M…12"</t>
-  </si>
-  <si>
-    <t>regizor is String, length in [1,255]</t>
-  </si>
-  <si>
-    <t>07. regizor = "", length = 0</t>
-  </si>
-  <si>
-    <t>"M…1234"</t>
-  </si>
-  <si>
-    <t>08. regizor = ?, length = -1</t>
-  </si>
-  <si>
-    <t>09. regizor = "D", length = 1</t>
-  </si>
-  <si>
-    <t>10. regizor = "D…123", length = 255</t>
-  </si>
-  <si>
-    <t>11. regizor = "D…12", length = 254</t>
-  </si>
-  <si>
-    <t>12. regizor = "D…1234", length = 256</t>
-  </si>
-  <si>
-    <t>an aparitie &gt;1900</t>
-  </si>
-  <si>
-    <t>13. an = 1960</t>
-  </si>
-  <si>
-    <t>14. an = 1959</t>
-  </si>
-  <si>
-    <t>15. an = 1961</t>
-  </si>
-  <si>
-    <t>16. an = max - 1</t>
-  </si>
-  <si>
-    <t>17. an = max + 1</t>
-  </si>
-  <si>
-    <t>18. an = max</t>
   </si>
   <si>
     <t>BBT TCs</t>
@@ -724,12 +513,106 @@
   <si>
     <t>24/03/2025 23:59</t>
   </si>
+  <si>
+    <t>time format is correct</t>
+  </si>
+  <si>
+    <t>"00:00", "12:30", "23:59"</t>
+  </si>
+  <si>
+    <t>"abcd"</t>
+  </si>
+  <si>
+    <t>Hour is within valid range</t>
+  </si>
+  <si>
+    <t>0 ≤ hour ≤ 23</t>
+  </si>
+  <si>
+    <t>"25:00", "-1:30"</t>
+  </si>
+  <si>
+    <t>Minute is within valid range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 ≤ minute ≤ 59
+</t>
+  </si>
+  <si>
+    <t>"23:61", "23:60"</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Bujor Remus Andrei</t>
+  </si>
+  <si>
+    <t>1, 3, 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time is at lower boundary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.time = "00:00"
+</t>
+  </si>
+  <si>
+    <t>Time is at upper boundary</t>
+  </si>
+  <si>
+    <t>time = "23:59"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hour below lower boundary
+</t>
+  </si>
+  <si>
+    <t>time = "-1:30"</t>
+  </si>
+  <si>
+    <t>Minute above upper boundary</t>
+  </si>
+  <si>
+    <t>time = "23:60"</t>
+  </si>
+  <si>
+    <t>date = 3/24/2025</t>
+  </si>
+  <si>
+    <t>02.date = 3/24/2025</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>F01.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> adăugarea unui task nou - subfunctie getDateMergedwithTime(time, date) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">F01. adăugarea unui task nou - subfunctie getDateMergedwithTime(time, date) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,25 +655,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="49"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="30"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="30"/>
       <name val="Calibri"/>
@@ -929,6 +794,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1400,9 +1271,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1410,71 +1281,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1482,83 +1350,65 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1579,43 +1429,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1630,122 +1486,186 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2057,39 +1977,39 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5234375" customWidth="1"/>
+    <col min="9" max="9" width="32.89453125" customWidth="1"/>
+    <col min="10" max="10" width="10.5234375" customWidth="1"/>
+    <col min="12" max="12" width="12.1015625" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="45" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="H1" s="43" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="H1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="48" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -2098,62 +2018,66 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="28"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="41" t="s">
+    <row r="7" spans="2:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -2161,7 +2085,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -2169,40 +2093,40 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="41" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C20" s="39" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2219,7 +2143,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2236,26 +2160,26 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="44" t="s">
+    <row r="24" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="39"/>
+      <c r="B24" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C26" s="42"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2275,67 +2199,67 @@
   </sheetPr>
   <dimension ref="B1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.89453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.89453125" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.89453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5234375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.89453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.89453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.89453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.41796875" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="G5" s="71" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="G5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="18" t="s">
         <v>24</v>
       </c>
@@ -2348,466 +2272,379 @@
       <c r="E6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="58" t="s">
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="58"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q6" s="75"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="64" t="s">
-        <v>32</v>
+      <c r="C7" s="57" t="s">
+        <v>85</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="57"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="74"/>
       <c r="I7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="55"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q7" s="72"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="G8" s="18">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2012</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="51"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="48">
+        <v>45740</v>
+      </c>
+      <c r="K8" s="49"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="133"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="64" t="s">
-        <v>49</v>
+      <c r="C9" s="57" t="s">
+        <v>88</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="18">
         <v>2</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="51"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="93">
+        <v>45740</v>
+      </c>
+      <c r="K9" s="94"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="133"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="64"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="28">
+        <v>90</v>
+      </c>
+      <c r="G10" s="27">
         <v>3</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="10">
-        <v>2012</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="63"/>
-      <c r="P10" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="63"/>
-    </row>
-    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="10">
+        <v>4</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="93">
+        <v>45740</v>
+      </c>
+      <c r="K10" s="94"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="135"/>
+    </row>
+    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>57</v>
+      <c r="C11" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="126" t="s">
+        <v>92</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>4</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="63"/>
-      <c r="P11" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="63"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="H11" s="10">
+        <v>6</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="90">
+        <v>45740</v>
+      </c>
+      <c r="K11" s="91"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="135"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="9">
-        <v>5</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="61"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="139"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="46"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="G13" s="9">
-        <v>6</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="61"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G13" s="9"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="46"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="66"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="14">
-        <v>7</v>
-      </c>
-      <c r="H14" s="13">
-        <v>10</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="75"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="53"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E14" s="4"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="141"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="44"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="64" t="s">
-        <v>50</v>
+      <c r="C15" s="57" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="G15" s="14">
-        <v>8</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J15" s="130"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="70"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="14"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="53"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J16" s="130"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="70"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="64" t="s">
-        <v>50</v>
+      <c r="C17" s="57" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="14"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="53"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J17" s="130"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="70"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="64"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="14"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="53"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J18" s="130"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="70"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="64" t="s">
-        <v>50</v>
+      <c r="C19" s="57" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="18"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J19" s="127"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="70"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
+        <v>37</v>
+      </c>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="31">
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C7:C8"/>
@@ -2820,36 +2657,8 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P15:Q15"/>
   </mergeCells>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2861,148 +2670,138 @@
   </sheetPr>
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1015625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.5234375" customWidth="1"/>
+    <col min="7" max="7" width="9.41796875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.21875" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5234375" customWidth="1"/>
+    <col min="12" max="12" width="18.20703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.20703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.89453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.89453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.20703125" customWidth="1"/>
+    <col min="18" max="18" width="9.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-    </row>
-    <row r="6" spans="2:18" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+    </row>
+    <row r="6" spans="2:18" ht="14.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="G6" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="78" t="s">
+      <c r="G6" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="78" t="s">
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="80"/>
-    </row>
-    <row r="7" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="65">
+      <c r="R6" s="86"/>
+    </row>
+    <row r="7" spans="2:18" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="58">
         <v>1</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="57"/>
+      <c r="C7" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="143" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="R7" s="55"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="83"/>
-      <c r="C8" s="85"/>
+        <v>32</v>
+      </c>
+      <c r="L7" s="71"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="72"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="78"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="G8" s="18">
         <v>1</v>
@@ -3011,269 +2810,199 @@
         <v>1</v>
       </c>
       <c r="I8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="77"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="83"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="L8" s="95">
+        <v>45740</v>
+      </c>
+      <c r="M8" s="86"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="47"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="78"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="2"/>
+      <c r="G9" s="18">
         <v>2</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="147">
         <v>2</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16" t="s">
+      <c r="I9" s="148" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9" s="61"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="83"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="L9" s="90">
+        <v>45740</v>
+      </c>
+      <c r="M9" s="91"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="46"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="78"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="2"/>
       <c r="G10" s="18">
         <v>3</v>
       </c>
       <c r="H10" s="12">
         <v>3</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="26">
-        <v>2010</v>
-      </c>
-      <c r="N10" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="R10" s="77"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="83"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="K10" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="90">
+        <v>45740</v>
+      </c>
+      <c r="M10" s="91"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="47"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="78"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="2"/>
       <c r="G11" s="18">
         <v>4</v>
       </c>
       <c r="H11" s="12">
         <v>4</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="26">
-        <v>2010</v>
-      </c>
-      <c r="N11" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="R11" s="77"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="66"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="K11" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="90">
+        <v>45740</v>
+      </c>
+      <c r="M11" s="91"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="47"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="59"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="2"/>
       <c r="G12" s="18">
         <v>5</v>
       </c>
-      <c r="H12" s="12">
-        <v>5</v>
-      </c>
+      <c r="H12" s="12"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" s="26">
-        <v>2010</v>
-      </c>
-      <c r="N12" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="R12" s="77"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="65">
+      <c r="K12" s="25"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="58">
         <v>2</v>
       </c>
-      <c r="C13" s="65" t="s">
-        <v>89</v>
+      <c r="C13" s="58" t="s">
+        <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G13" s="14">
-        <v>6</v>
-      </c>
-      <c r="H13" s="15">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H13" s="15"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="13">
-        <v>2010</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="R13" s="61"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="68"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G14" s="18">
         <v>7</v>
       </c>
-      <c r="H14" s="12">
-        <v>7</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>50</v>
-      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
       <c r="P14" s="26"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="77"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="88"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="2"/>
       <c r="G15" s="18">
         <v>8</v>
       </c>
-      <c r="H15" s="12">
-        <v>8</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>50</v>
-      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
       <c r="P15" s="26"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="77"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="88"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="2"/>
       <c r="G16" s="18">
         <v>9</v>
       </c>
@@ -3286,15 +3015,13 @@
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="77"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="88"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="2"/>
       <c r="G17" s="18">
         <v>10</v>
       </c>
@@ -3307,15 +3034,13 @@
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
       <c r="P17" s="26"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="77"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="2"/>
       <c r="G18" s="18">
         <v>11</v>
       </c>
@@ -3328,18 +3053,18 @@
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
       <c r="P18" s="26"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="77"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="65">
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="58">
         <v>3</v>
       </c>
-      <c r="C19" s="84" t="s">
-        <v>97</v>
+      <c r="C19" s="79" t="s">
+        <v>101</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G19" s="18">
         <v>12</v>
@@ -3353,14 +3078,14 @@
       <c r="N19" s="26"/>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="77"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="83"/>
-      <c r="C20" s="85"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="88"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="78"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G20" s="18">
         <v>13</v>
@@ -3374,15 +3099,13 @@
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
       <c r="P20" s="26"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="77"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="83"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="88"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="78"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="2"/>
       <c r="G21" s="18">
         <v>14</v>
       </c>
@@ -3395,15 +3118,13 @@
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
       <c r="P21" s="26"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="77"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="83"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="88"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="78"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="2"/>
       <c r="G22" s="18">
         <v>15</v>
       </c>
@@ -3416,15 +3137,13 @@
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="77"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="83"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="78"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="2"/>
       <c r="G23" s="18">
         <v>16</v>
       </c>
@@ -3437,15 +3156,13 @@
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="77"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="66"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="59"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="2"/>
       <c r="G24" s="18">
         <v>17</v>
       </c>
@@ -3458,18 +3175,18 @@
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="77"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="65">
+      <c r="Q24" s="87"/>
+      <c r="R24" s="88"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="58">
         <v>4</v>
       </c>
-      <c r="C25" s="84" t="s">
-        <v>50</v>
+      <c r="C25" s="79" t="s">
+        <v>103</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G25" s="18">
         <v>18</v>
@@ -3483,60 +3200,89 @@
       <c r="N25" s="26"/>
       <c r="O25" s="26"/>
       <c r="P25" s="26"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="77"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="83"/>
-      <c r="C26" s="85"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="88"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="78"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="83"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="83"/>
-      <c r="C28" s="85"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="78"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="78"/>
+      <c r="C28" s="80"/>
       <c r="D28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="35"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="83"/>
-      <c r="C29" s="85"/>
+        <v>35</v>
+      </c>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="34"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="78"/>
+      <c r="C29" s="80"/>
       <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="36"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="66"/>
-      <c r="C30" s="86"/>
+        <v>35</v>
+      </c>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="35"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="59"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="47">
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3553,30 +3299,6 @@
     <mergeCell ref="G5:R5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3592,297 +3314,297 @@
   <dimension ref="B1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" customWidth="1"/>
-    <col min="10" max="10" width="34.109375" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.20703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5234375" customWidth="1"/>
+    <col min="9" max="9" width="40.68359375" customWidth="1"/>
+    <col min="10" max="10" width="34.1015625" customWidth="1"/>
+    <col min="11" max="11" width="13.3125" customWidth="1"/>
+    <col min="12" max="12" width="9.89453125" customWidth="1"/>
+    <col min="13" max="13" width="36.1015625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="115" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="113" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="78" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="79" t="s">
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="123"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="98"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="112"/>
+      <c r="J4" s="96"/>
+    </row>
+    <row r="5" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="106"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="111"/>
+        <v>72</v>
+      </c>
+      <c r="G5" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="98"/>
       <c r="I5" s="20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="19">
         <v>1</v>
       </c>
-      <c r="C6" s="97" t="s">
-        <v>110</v>
+      <c r="C6" s="105" t="s">
+        <v>52</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="124" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="116">
+        <v>36</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="99">
         <v>45740</v>
       </c>
-      <c r="H6" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="125" t="s">
-        <v>141</v>
+      <c r="H6" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>83</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="24" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="124" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="118">
+        <v>36</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="93">
         <v>45740</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="125" t="s">
-        <v>134</v>
+      <c r="H7" s="94"/>
+      <c r="I7" s="51" t="s">
+        <v>76</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8">
         <f>B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="97"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="24" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="124" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="118">
+        <v>36</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="93">
         <v>45740</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="125" t="s">
-        <v>134</v>
+      <c r="H8" s="94"/>
+      <c r="I8" s="51" t="s">
+        <v>76</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="97"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="24" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="124" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="120">
+      <c r="F9" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="90">
         <v>45740</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="125" t="s">
-        <v>134</v>
+      <c r="H9" s="91"/>
+      <c r="I9" s="51" t="s">
+        <v>76</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="97"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="24" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="124" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="122">
+        <v>55</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="95">
         <v>45740</v>
       </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="125" t="s">
-        <v>141</v>
+      <c r="H10" s="86"/>
+      <c r="I10" s="51" t="s">
+        <v>83</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="24" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="124" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="120">
+        <v>68</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="90">
         <v>45740</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="125" t="s">
-        <v>142</v>
+      <c r="H11" s="91"/>
+      <c r="I11" s="51" t="s">
+        <v>84</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="8">
         <f t="shared" ref="B12:B13" si="0">B11+1</f>
         <v>7</v>
       </c>
-      <c r="C12" s="97"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="24" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="124" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="120">
+        <v>69</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="90">
         <v>45740</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="125" t="s">
-        <v>134</v>
+      <c r="H12" s="91"/>
+      <c r="I12" s="51" t="s">
+        <v>76</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="97"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="24" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="124" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="120">
+        <v>71</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="90">
         <v>45740</v>
       </c>
-      <c r="H13" s="121"/>
-      <c r="I13" s="125" t="s">
-        <v>134</v>
+      <c r="H13" s="91"/>
+      <c r="I13" s="51" t="s">
+        <v>76</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
@@ -3897,9 +3619,9 @@
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="21" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
@@ -3909,164 +3631,155 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="91"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="N17" s="91"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="103" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="106"/>
-      <c r="J18" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="M18" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="N18" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="O18" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="P18" s="88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="88"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="30">
+    <row r="17" spans="2:16" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="118"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="118"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="117"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="120"/>
+      <c r="J18" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="114" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="114" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="111"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="114"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="29">
         <v>8</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="31">
         <v>8</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="31">
         <v>0</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="32">
         <v>0</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="102"/>
+      <c r="G20" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="110"/>
       <c r="J20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="31">
         <v>0</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="32">
         <v>0</v>
       </c>
-      <c r="M20" s="37" t="s">
-        <v>52</v>
+      <c r="M20" s="36" t="s">
+        <v>36</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
       </c>
-      <c r="O20" s="32">
+      <c r="O20" s="31">
         <v>0</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="M21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -4083,12 +3796,21 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4097,21 +3819,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -4255,24 +3962,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4288,4 +3993,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>